--- a/ExcelSetting.xlsx
+++ b/ExcelSetting.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="MC_1" sheetId="1" r:id="rId1"/>
+    <sheet name="anjan-PC" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -427,7 +427,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ExcelSetting.xlsx
+++ b/ExcelSetting.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\snapshot\FBAdvert\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="anjan-PC" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="DESKTOP-D8MRSFB" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Numberofsessions</t>
   </si>
@@ -79,13 +85,39 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>yxrkt512@gmail.com</t>
+  </si>
+  <si>
+    <t>AdvertAccountName</t>
+  </si>
+  <si>
+    <t>Rahul Kar</t>
+  </si>
+  <si>
+    <t>gfgfjfgjfjfjfj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,10 +157,13 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -136,6 +171,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -182,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,9 +257,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,6 +309,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,20 +502,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -452,7 +531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -460,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -468,7 +547,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -476,7 +555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -484,7 +563,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -492,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -500,7 +579,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -508,7 +587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -516,7 +595,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -533,24 +612,143 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelSetting.xlsx
+++ b/ExcelSetting.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\snapshot\FBAdvert\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="anjan-PC" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Numberofsessions</t>
   </si>
@@ -30,9 +25,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>test@g.com</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
@@ -75,9 +67,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>12345</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -97,13 +86,22 @@
   </si>
   <si>
     <t>gfgfjfgjfjfjfj</t>
+  </si>
+  <si>
+    <t>Anjan Mondal</t>
+  </si>
+  <si>
+    <t>bhdsfhkfhgkfh</t>
+  </si>
+  <si>
+    <t>test@g.coom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +223,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,27 +255,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,24 +289,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -502,224 +464,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2" display="whoami!@#"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -727,28 +698,29 @@
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelSetting.xlsx
+++ b/ExcelSetting.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\snapshot\FBAdvert\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="anjan-PC" sheetId="1" r:id="rId1"/>
@@ -85,9 +90,6 @@
     <t>Rahul Kar</t>
   </si>
   <si>
-    <t>gfgfjfgjfjfjfj</t>
-  </si>
-  <si>
     <t>Anjan Mondal</t>
   </si>
   <si>
@@ -95,13 +97,30 @@
   </si>
   <si>
     <t>test@g.coom</t>
+  </si>
+  <si>
+    <t>garbage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,13 +174,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -223,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,9 +276,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,6 +328,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -464,112 +521,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -583,113 +641,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -703,24 +761,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelSetting.xlsx
+++ b/ExcelSetting.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\snapshot\FBAdvert\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="anjan-PC" sheetId="1" r:id="rId1"/>
@@ -93,20 +88,20 @@
     <t>Anjan Mondal</t>
   </si>
   <si>
-    <t>bhdsfhkfhgkfh</t>
-  </si>
-  <si>
-    <t>test@g.coom</t>
-  </si>
-  <si>
     <t>garbage</t>
+  </si>
+  <si>
+    <t>anjanmondal@gmail.com</t>
+  </si>
+  <si>
+    <t>whoami!@#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +137,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,8 +169,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -244,7 +232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -276,27 +264,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,24 +298,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,21 +473,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -543,23 +495,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -567,7 +519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -575,7 +527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -583,7 +535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -591,7 +543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -599,7 +551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -607,7 +559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -615,7 +567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -623,7 +575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -634,28 +586,28 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2" display="whoami!@#"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,7 +615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -671,15 +623,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -687,7 +639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -695,7 +647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -703,7 +655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -711,7 +663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -719,7 +671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -727,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -735,7 +687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -743,7 +695,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -761,24 +713,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelSetting.xlsx
+++ b/ExcelSetting.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>Numberofsessions</t>
   </si>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>garbage</t>
-  </si>
-  <si>
-    <t>anjanmondal@gmail.com</t>
-  </si>
-  <si>
-    <t>whoami!@#</t>
   </si>
 </sst>
 </file>
@@ -477,7 +471,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,17 +493,13 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
@@ -584,10 +574,6 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ExcelSetting.xlsx
+++ b/ExcelSetting.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\snapshot\FBAdvert\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="anjan-PC" sheetId="1" r:id="rId1"/>
-    <sheet name="DESKTOP-D8MRSFB" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="DESKTOP-D8MRSFB" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
-  <si>
-    <t>Numberofsessions</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Email</t>
   </si>
@@ -28,51 +29,12 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Numberofreports</t>
-  </si>
-  <si>
     <t>ReportType</t>
   </si>
   <si>
-    <t>Campaign</t>
-  </si>
-  <si>
-    <t>AccountTimeZone</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>Windows 7</t>
-  </si>
-  <si>
-    <t>FrequencyofDataGrab</t>
-  </si>
-  <si>
-    <t>bi-daily</t>
-  </si>
-  <si>
-    <t>Timeframeofreport</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
     <t>TimeofDataGrab</t>
   </si>
   <si>
-    <t>Browsertoopen</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -85,17 +47,29 @@
     <t>Rahul Kar</t>
   </si>
   <si>
-    <t>Anjan Mondal</t>
-  </si>
-  <si>
-    <t>garbage</t>
+    <t>DataColumn</t>
+  </si>
+  <si>
+    <t>Performance and Clicks</t>
+  </si>
+  <si>
+    <t>DateRange</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Campaigns;Advert Sets;Adverts</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +98,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -156,15 +123,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -226,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -258,9 +221,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,6 +273,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,256 +466,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:B3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelSetting.xlsx
+++ b/ExcelSetting.xlsx
@@ -1,27 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\snapshot\FBAdvert\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DESKTOP-D8MRSFB" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="anjan-PC" sheetId="5" r:id="rId2"/>
+    <sheet name="Scheduler" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -63,13 +59,59 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Anjan Mondal</t>
+  </si>
+  <si>
+    <t>TIME1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Column_name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Column name should be capital 'TIME' followed by interger i.e TIME1,TIME2]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Time 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[Time format 24 hrs]</t>
+    </r>
+  </si>
+  <si>
+    <t>01:38</t>
+  </si>
+  <si>
+    <t>test@g.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +140,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -107,12 +157,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -123,11 +188,20 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -189,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -221,27 +295,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,24 +329,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,21 +504,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -496,7 +534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -504,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -512,7 +550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -520,7 +558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -528,7 +566,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -546,24 +584,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="whoami@#$"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="81.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelSetting.xlsx
+++ b/ExcelSetting.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\snapshot\FBAdvert\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="DESKTOP-D8MRSFB" sheetId="4" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Email</t>
   </si>
@@ -106,12 +111,21 @@
   <si>
     <t>test@g.com</t>
   </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +161,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,12 +216,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -202,6 +229,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -263,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,9 +326,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,6 +378,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,21 +571,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,15 +593,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -542,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -550,7 +617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -558,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -566,12 +633,20 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -584,74 +659,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="8" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -665,31 +748,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="81.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -700,12 +783,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelSetting.xlsx
+++ b/ExcelSetting.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\snapshot\FBAdvert\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DESKTOP-D8MRSFB" sheetId="4" r:id="rId1"/>
@@ -39,15 +34,9 @@
     <t>12</t>
   </si>
   <si>
-    <t>yxrkt512@gmail.com</t>
-  </si>
-  <si>
     <t>AdvertAccountName</t>
   </si>
   <si>
-    <t>Rahul Kar</t>
-  </si>
-  <si>
     <t>DataColumn</t>
   </si>
   <si>
@@ -61,9 +50,6 @@
   </si>
   <si>
     <t>Campaigns;Advert Sets;Adverts</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>Anjan Mondal</t>
@@ -109,9 +95,6 @@
     <t>01:38</t>
   </si>
   <si>
-    <t>test@g.com</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
@@ -119,13 +102,25 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>anjanmondal@gmail.com</t>
+  </si>
+  <si>
+    <t>tesdt</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>whoami@#$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -168,13 +156,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,10 +197,9 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -229,10 +209,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -294,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,27 +304,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,24 +338,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -571,87 +513,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B1" r:id="rId1" display="anjanmondal@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -659,88 +601,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="8" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="7" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="whoami@#$"/>
+    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -748,32 +690,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="1" spans="1:2" ht="81.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -783,12 +725,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ExcelSetting.xlsx
+++ b/ExcelSetting.xlsx
@@ -1,23 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\snapshot\FBAdvert\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="15255" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DESKTOP-D8MRSFB" sheetId="4" r:id="rId1"/>
-    <sheet name="anjan-PC" sheetId="5" r:id="rId2"/>
-    <sheet name="Scheduler" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Scheduler" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Email</t>
   </si>
@@ -44,15 +48,6 @@
   </si>
   <si>
     <t>DateRange</t>
-  </si>
-  <si>
-    <t>Lifetime</t>
-  </si>
-  <si>
-    <t>Campaigns;Advert Sets;Adverts</t>
-  </si>
-  <si>
-    <t>Anjan Mondal</t>
   </si>
   <si>
     <t>TIME1</t>
@@ -92,35 +87,35 @@
     </r>
   </si>
   <si>
-    <t>01:38</t>
-  </si>
-  <si>
     <t>Browser</t>
   </si>
   <si>
-    <t>Firefox</t>
+    <t>Campaigns;Advert Sets</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Linda Vitolina</t>
   </si>
   <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>anjanmondal@gmail.com</t>
-  </si>
-  <si>
-    <t>tesdt</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>whoami@#$</t>
+    <t>dgfdgdfg@ehi.com</t>
+  </si>
+  <si>
+    <t>1993fgfjgnj</t>
+  </si>
+  <si>
+    <t>12:28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +141,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -197,20 +199,22 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -272,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,9 +308,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,6 +360,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -513,53 +553,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -567,15 +607,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -583,17 +623,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="anjanmondal@gmail.com"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -601,121 +641,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="25.5703125" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="81.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -724,13 +676,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
